--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd36233f9ea2062c/MINES/FALL 2022/CSCI306/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avely\eclipse\ClueGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C0B41C-D241-436C-AF17-E7EF804C585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BED0B6-8736-4D34-BCA2-D4A872072D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="1" xr2:uid="{451E3A58-194B-4F49-BAFE-E45E5B9C6614}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{451E3A58-194B-4F49-BAFE-E45E5B9C6614}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,39 +643,39 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.26953125" customWidth="1"/>
-    <col min="3" max="4" width="2.81640625" customWidth="1"/>
-    <col min="5" max="5" width="2.54296875" customWidth="1"/>
-    <col min="6" max="6" width="3.1796875" customWidth="1"/>
-    <col min="7" max="7" width="3.453125" customWidth="1"/>
-    <col min="8" max="9" width="3.1796875" customWidth="1"/>
-    <col min="10" max="10" width="3.26953125" customWidth="1"/>
-    <col min="11" max="11" width="3.54296875" customWidth="1"/>
-    <col min="12" max="13" width="3.26953125" customWidth="1"/>
-    <col min="14" max="14" width="3.453125" customWidth="1"/>
-    <col min="15" max="15" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" customWidth="1"/>
+    <col min="8" max="9" width="3.140625" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="12" max="13" width="3.28515625" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3.1796875" customWidth="1"/>
-    <col min="18" max="18" width="3.26953125" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" customWidth="1"/>
+    <col min="18" max="18" width="3.28515625" customWidth="1"/>
     <col min="19" max="19" width="3" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" customWidth="1"/>
-    <col min="21" max="21" width="3.453125" customWidth="1"/>
-    <col min="22" max="22" width="3.1796875" customWidth="1"/>
-    <col min="23" max="23" width="3.26953125" customWidth="1"/>
-    <col min="24" max="24" width="3.453125" customWidth="1"/>
-    <col min="25" max="25" width="3.54296875" customWidth="1"/>
+    <col min="20" max="20" width="3.140625" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" customWidth="1"/>
+    <col min="25" max="25" width="3.5703125" customWidth="1"/>
     <col min="26" max="26" width="3" customWidth="1"/>
-    <col min="27" max="27" width="3.26953125" customWidth="1"/>
-    <col min="28" max="28" width="3.1796875" customWidth="1"/>
-    <col min="29" max="29" width="3.26953125" customWidth="1"/>
-    <col min="30" max="31" width="3.54296875" customWidth="1"/>
-    <col min="32" max="32" width="3.1796875" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" customWidth="1"/>
+    <col min="28" max="28" width="3.140625" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" customWidth="1"/>
+    <col min="30" max="31" width="3.5703125" customWidth="1"/>
+    <col min="32" max="32" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -966,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3229,13 +3229,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F767267-3641-42CE-9A8E-2B42BE0695CE}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="32" width="3.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -3337,7 +3340,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4531,7 +4534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5217,7 +5220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5707,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5805,27 +5808,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6014,15 +6015,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBCE43E2-5585-4F75-AC36-8CA133BC2A0D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D62B7CF7-0F09-49E2-B441-A8E81FCDCD5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6047,10 +6052,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D62B7CF7-0F09-49E2-B441-A8E81FCDCD5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBCE43E2-5585-4F75-AC36-8CA133BC2A0D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avely\eclipse\ClueGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BED0B6-8736-4D34-BCA2-D4A872072D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914549A1-199D-46A8-891E-9B4899C2FB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{451E3A58-194B-4F49-BAFE-E45E5B9C6614}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="38">
   <si>
     <t>B</t>
   </si>
@@ -150,28 +150,7 @@
     <t>L#</t>
   </si>
   <si>
-    <t>Number of doors: 20</t>
-  </si>
-  <si>
-    <t>Light Grey: door direction tests (in BoardInitTests)</t>
-  </si>
-  <si>
-    <t>Magenta: room test</t>
-  </si>
-  <si>
-    <t>Light Green: adjacency secret passage</t>
-  </si>
-  <si>
     <t>W&lt;</t>
-  </si>
-  <si>
-    <t>Dark Green: Test adjacency (only walkways/empty)</t>
-  </si>
-  <si>
-    <t>Gold - Test targets</t>
-  </si>
-  <si>
-    <t>Orange - Test Occupied</t>
   </si>
 </sst>
 </file>
@@ -195,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,12 +225,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -264,25 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD72DB3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -312,10 +267,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3229,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F767267-3641-42CE-9A8E-2B42BE0695CE}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3333,11 +3286,9 @@
       <c r="AF1" s="1">
         <v>30</v>
       </c>
-      <c r="AG1" s="1"/>
-      <c r="AH1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI1" s="1"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="12"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -3371,7 +3322,7 @@
       <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -3434,12 +3385,12 @@
       <c r="AE2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3538,9 +3489,9 @@
       <c r="AF3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3639,9 +3590,9 @@
       <c r="AF4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AH4" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3716,8 +3667,8 @@
       <c r="X5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Y5" s="11" t="s">
-        <v>41</v>
+      <c r="Y5" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>6</v>
@@ -3734,15 +3685,15 @@
       <c r="AD5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AE5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3766,7 +3717,7 @@
       <c r="G6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -3787,7 +3738,7 @@
       <c r="N6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -3841,9 +3792,9 @@
       <c r="AF6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AH6" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3930,7 +3881,7 @@
       <c r="AB7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="AD7" s="4" t="s">
@@ -3942,9 +3893,9 @@
       <c r="AF7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AH7" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3971,10 +3922,10 @@
       <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -4004,7 +3955,7 @@
       <c r="S8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U8" s="2" t="s">
@@ -4043,6 +3994,9 @@
       <c r="AF8" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -4081,7 +4035,7 @@
       <c r="L9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="4" t="s">
@@ -4114,8 +4068,8 @@
       <c r="W9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="15" t="s">
-        <v>41</v>
+      <c r="X9" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>6</v>
@@ -4123,7 +4077,7 @@
       <c r="Z9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA9" s="15" t="s">
+      <c r="AA9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="AB9" s="2" t="s">
@@ -4262,7 +4216,7 @@
       <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -4322,7 +4276,7 @@
       <c r="AA11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AB11" s="11" t="s">
+      <c r="AB11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AC11" s="2" t="s">
@@ -4334,7 +4288,7 @@
       <c r="AE11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="9" t="s">
+      <c r="AF11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4467,7 +4421,7 @@
       <c r="J13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -4595,7 +4549,7 @@
       <c r="T14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -4607,7 +4561,7 @@
       <c r="X14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Y14" s="9" t="s">
+      <c r="Y14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Z14" s="4" t="s">
@@ -4636,7 +4590,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -4648,7 +4602,7 @@
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -4743,19 +4697,19 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -4832,7 +4786,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4868,7 +4822,7 @@
       <c r="M17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O17" s="2" t="s">
@@ -4895,7 +4849,7 @@
       <c r="V17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="X17" s="2" t="s">
@@ -4975,10 +4929,10 @@
       <c r="P18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="S18" s="2" t="s">
@@ -5230,13 +5184,13 @@
       <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -5355,7 +5309,7 @@
       <c r="L22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="N22" s="4" t="s">
@@ -5382,8 +5336,8 @@
       <c r="U22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V22" s="11" t="s">
-        <v>41</v>
+      <c r="V22" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>6</v>
@@ -5453,7 +5407,7 @@
       <c r="L23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -5480,8 +5434,8 @@
       <c r="U23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V23" s="11" t="s">
-        <v>41</v>
+      <c r="V23" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>6</v>
@@ -5498,7 +5452,7 @@
       <c r="AA23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AB23" s="11" t="s">
+      <c r="AB23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="AC23" s="4" t="s">
@@ -5518,7 +5472,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -5551,7 +5505,7 @@
       <c r="L24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -5587,10 +5541,10 @@
       <c r="X24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Y24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z24" s="14" t="s">
+      <c r="Y24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="AA24" s="2" t="s">
@@ -5723,7 +5677,7 @@
       <c r="D26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
